--- a/Modelos em Python/resultados_todos_os_dados_combined.xlsx
+++ b/Modelos em Python/resultados_todos_os_dados_combined.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25.03048000129247</v>
+        <v>22.52849792020219</v>
       </c>
       <c r="D6" t="n">
-        <v>1.958592176437378</v>
+        <v>1.844750642776489</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5163043680816526</v>
+        <v>0.4870551405236328</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23.86306340546137</v>
+        <v>21.10583395935542</v>
       </c>
       <c r="D7" t="n">
-        <v>1.905642747879028</v>
+        <v>1.77772068977356</v>
       </c>
       <c r="E7" t="n">
-        <v>0.502598014553144</v>
+        <v>0.4702437097221303</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.65204771995229</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D8" t="n">
-        <v>1.896071195602417</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5001387963170801</v>
+        <v>0.471260627415917</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.22087590073025</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D9" t="n">
-        <v>1.876447916030884</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4951154052805309</v>
+        <v>0.471260627415917</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25.03048000129247</v>
+        <v>22.52849792020219</v>
       </c>
       <c r="D10" t="n">
-        <v>1.958592176437378</v>
+        <v>1.844750642776489</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5163043680816526</v>
+        <v>0.4870551405236328</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.86306340546137</v>
+        <v>21.10583395935542</v>
       </c>
       <c r="D11" t="n">
-        <v>1.905642747879028</v>
+        <v>1.77772068977356</v>
       </c>
       <c r="E11" t="n">
-        <v>0.502598014553144</v>
+        <v>0.4702437097221303</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.65204771995229</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D12" t="n">
-        <v>1.896071195602417</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5001387963170801</v>
+        <v>0.471260627415917</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.22087590073025</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D13" t="n">
-        <v>1.876447916030884</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4951154052805309</v>
+        <v>0.471260627415917</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.46562498717149</v>
+        <v>23.07832766890068</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7865203007377047</v>
+        <v>0.8643959354162353</v>
       </c>
       <c r="E14" t="n">
-        <v>1.199666111595038</v>
+        <v>1.302032069043363</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45.87873608499238</v>
+        <v>49.4599332716938</v>
       </c>
       <c r="D15" t="n">
-        <v>2.003203053566136</v>
+        <v>2.21863096770107</v>
       </c>
       <c r="E15" t="n">
-        <v>3.13947990943957</v>
+        <v>3.44505948751649</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46.50115252295207</v>
+        <v>50.42101905011774</v>
       </c>
       <c r="D16" t="n">
-        <v>2.041949014517559</v>
+        <v>2.280573881586833</v>
       </c>
       <c r="E16" t="n">
-        <v>3.208492803144895</v>
+        <v>3.547807696448059</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45.72448363090371</v>
+        <v>50.11640977756953</v>
       </c>
       <c r="D17" t="n">
-        <v>1.996158645402323</v>
+        <v>2.26167652119432</v>
       </c>
       <c r="E17" t="n">
-        <v>3.144116496053768</v>
+        <v>3.521395467734218</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.41058565105434</v>
+        <v>23.20924017736813</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9271565738190746</v>
+        <v>0.8707459968473389</v>
       </c>
       <c r="E18" t="n">
-        <v>1.387721411716319</v>
+        <v>1.306764084906003</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>58.53875766054997</v>
+        <v>56.19048552477736</v>
       </c>
       <c r="D19" t="n">
-        <v>2.812061634384569</v>
+        <v>2.651350055535816</v>
       </c>
       <c r="E19" t="n">
-        <v>4.290355116569301</v>
+        <v>4.059615282252433</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>62.38094569704582</v>
+        <v>58.28018315859478</v>
       </c>
       <c r="D20" t="n">
-        <v>3.091930230605985</v>
+        <v>2.799028673525502</v>
       </c>
       <c r="E20" t="n">
-        <v>4.715661465321454</v>
+        <v>4.294924318746209</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>67.30674612363981</v>
+        <v>58.36035418653269</v>
       </c>
       <c r="D21" t="n">
-        <v>3.469560982871853</v>
+        <v>2.804831944777669</v>
       </c>
       <c r="E21" t="n">
-        <v>5.269008189797872</v>
+        <v>4.304306853219434</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17.24620026914983</v>
+        <v>17.31950436219163</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5733091557234093</v>
+        <v>0.5757628529260398</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3088291976052599</v>
+        <v>0.307753104279438</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>75.10971636419636</v>
+        <v>74.45466632699608</v>
       </c>
       <c r="D23" t="n">
-        <v>4.130615121132298</v>
+        <v>4.072078811803945</v>
       </c>
       <c r="E23" t="n">
-        <v>1.461210178168032</v>
+        <v>1.443199309140231</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>95.60733064989418</v>
+        <v>94.62806273186627</v>
       </c>
       <c r="D24" t="n">
-        <v>6.333852365284719</v>
+        <v>6.209021196444549</v>
       </c>
       <c r="E24" t="n">
-        <v>2.140997854345491</v>
+        <v>2.102237195747287</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>103.7303502125101</v>
+        <v>102.3555089074154</v>
       </c>
       <c r="D25" t="n">
-        <v>7.467343892882151</v>
+        <v>7.262206043116429</v>
       </c>
       <c r="E25" t="n">
-        <v>2.492704826256704</v>
+        <v>2.428888997082572</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="E46" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
